--- a/Import/Import_TechnicalStaff.xlsx
+++ b/Import/Import_TechnicalStaff.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24701"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81CC07CD-2638-4E06-B55D-B7994396B344}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05C88F32-4150-47D3-83A8-B0BF6450668C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="13">
   <si>
     <t>STT</t>
   </si>
@@ -53,15 +53,18 @@
   </si>
   <si>
     <t>linhnt@gmail.com</t>
+  </si>
+  <si>
+    <t>031541544</t>
+  </si>
+  <si>
+    <t>0145145472</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="_([$$-409]* #,##0.00_);_([$$-409]* \(#,##0.00\);_([$$-409]* &quot;-&quot;??_);_(@_)"/>
-  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -113,19 +116,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -410,31 +413,31 @@
   <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="17.109375" customWidth="1"/>
     <col min="3" max="3" width="18.77734375" customWidth="1"/>
-    <col min="4" max="4" width="18.5546875" style="3" customWidth="1"/>
+    <col min="4" max="4" width="18.5546875" style="6" customWidth="1"/>
     <col min="5" max="5" width="26" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="5" t="s">
+      <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="5" t="s">
+      <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="5" t="s">
+      <c r="C1" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="4" t="s">
         <v>3</v>
       </c>
-      <c r="E1" s="5" t="s">
+      <c r="E1" s="3" t="s">
         <v>4</v>
       </c>
     </row>
@@ -448,10 +451,10 @@
       <c r="C2" s="1" t="s">
         <v>7</v>
       </c>
-      <c r="D2" s="2">
-        <v>31541544</v>
-      </c>
-      <c r="E2" s="4" t="s">
+      <c r="D2" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>9</v>
       </c>
     </row>
@@ -465,10 +468,10 @@
       <c r="C3" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="D3" s="2">
-        <v>145145472</v>
-      </c>
-      <c r="E3" s="4" t="s">
+      <c r="D3" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>10</v>
       </c>
     </row>
